--- a/src/assets/data/1_Planeacion Institucional/Caracterizacion/PI-CRT-001 Caracterizacion de procesos Planeacion Institucional.xlsx
+++ b/src/assets/data/1_Planeacion Institucional/Caracterizacion/PI-CRT-001 Caracterizacion de procesos Planeacion Institucional.xlsx
@@ -1891,7 +1891,7 @@
     <xdr:ext cx="838200" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1919,7 +1919,7 @@
     <xdr:ext cx="1114425" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
